--- a/public/RMS-FORMv2.xlsx
+++ b/public/RMS-FORMv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\RMS\rms-admin-reactjs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585BA6A5-BF6F-472F-A9D7-44E99A927B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E690AE-8F61-48A3-867B-2EC4EE94D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{2516D39E-AF4F-42BA-81E3-AEC62EE68D27}"/>
   </bookViews>
@@ -1253,200 +1253,200 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEB3E77-7380-44FA-8FBD-253B8E4B67B0}">
   <dimension ref="A3:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
@@ -1849,179 +1849,179 @@
   <sheetData>
     <row r="3" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
     </row>
     <row r="8" spans="1:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="6"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="50"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="90"/>
     </row>
     <row r="10" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="52"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="92"/>
     </row>
     <row r="11" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
       <c r="T11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="51"/>
-      <c r="V11" s="52"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="92"/>
     </row>
     <row r="12" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2030,32 +2030,32 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="94"/>
     </row>
     <row r="13" spans="1:22" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
     </row>
     <row r="14" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -2085,67 +2085,67 @@
       <c r="A15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="12"/>
       <c r="E15" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="T15" s="36"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
     </row>
     <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="1"/>
       <c r="E16" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="36" t="s">
+      <c r="S16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -2153,8 +2153,8 @@
       <c r="G17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="23" t="s">
         <v>17</v>
       </c>
@@ -2162,8 +2162,8 @@
       <c r="L17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
       <c r="O17" s="23" t="s">
         <v>19</v>
       </c>
@@ -2171,8 +2171,8 @@
       <c r="Q17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
       <c r="T17" s="23" t="s">
         <v>21</v>
       </c>
@@ -2188,17 +2188,17 @@
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
@@ -2210,12 +2210,12 @@
       <c r="V18" s="15"/>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -2236,11 +2236,11 @@
       <c r="V19" s="35"/>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -2262,18 +2262,18 @@
       <c r="V20" s="35"/>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
@@ -2284,32 +2284,32 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="17"/>
-      <c r="S21" s="36" t="s">
+      <c r="S21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="36"/>
+      <c r="T21" s="34"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -2320,66 +2320,66 @@
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
     </row>
     <row r="24" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45" t="s">
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45" t="s">
+      <c r="F24" s="71"/>
+      <c r="G24" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45" t="s">
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45" t="s">
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45" t="s">
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="V24" s="45"/>
+      <c r="V24" s="71"/>
     </row>
     <row r="25" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
@@ -2435,45 +2435,45 @@
     </row>
     <row r="27" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
     </row>
     <row r="30" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -2492,20 +2492,20 @@
       <c r="Q31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="36" t="s">
+      <c r="R31" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -2516,11 +2516,11 @@
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="39" t="s">
+      <c r="N32" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
@@ -2531,11 +2531,11 @@
       <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
@@ -2554,35 +2554,35 @@
       <c r="Q33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="36" t="s">
+      <c r="R33" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="39" t="s">
+      <c r="N34" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -2593,13 +2593,13 @@
       <c r="V34" s="9"/>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
@@ -2619,62 +2619,62 @@
       <c r="V35" s="33"/>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
     </row>
     <row r="37" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45" t="s">
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45" t="s">
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45" t="s">
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
@@ -2749,54 +2749,54 @@
       <c r="V40" s="37"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
     </row>
     <row r="43" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
       <c r="N45" s="35"/>
@@ -2822,11 +2822,11 @@
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
@@ -2836,18 +2836,18 @@
       <c r="P46" s="35"/>
       <c r="Q46" s="35"/>
       <c r="R46" s="17"/>
-      <c r="S46" s="36" t="s">
+      <c r="S46" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="T46" s="36"/>
+      <c r="T46" s="34"/>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -2864,10 +2864,10 @@
       <c r="P47" s="35"/>
       <c r="Q47" s="35"/>
       <c r="R47" s="17"/>
-      <c r="S47" s="36" t="s">
+      <c r="S47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="T47" s="36"/>
+      <c r="T47" s="34"/>
       <c r="U47" s="9"/>
       <c r="V47" s="26" t="s">
         <v>58</v>
@@ -2893,36 +2893,36 @@
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45" t="s">
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45" t="s">
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
     </row>
     <row r="50" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
@@ -3004,242 +3004,242 @@
       <c r="C54" s="18"/>
     </row>
     <row r="55" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
     </row>
     <row r="56" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45" t="s">
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45" t="s">
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45" t="s">
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45" t="s">
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="U57" s="45"/>
+      <c r="U57" s="71"/>
       <c r="V57" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="62"/>
-      <c r="V58" s="65"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="49"/>
     </row>
     <row r="59" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="35"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="63"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="J59" s="35"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="63"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="47"/>
       <c r="P59" s="35"/>
       <c r="Q59" s="35"/>
       <c r="R59" s="35"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="66"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="48"/>
+      <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="62"/>
-      <c r="V60" s="65"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="49"/>
     </row>
     <row r="61" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="35"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="63"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="63"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="47"/>
       <c r="P61" s="35"/>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
-      <c r="S61" s="64"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="64"/>
-      <c r="V61" s="66"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="48"/>
+      <c r="V61" s="50"/>
     </row>
     <row r="62" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="60"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="65"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="49"/>
     </row>
     <row r="63" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="35"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="63"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="63"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="47"/>
       <c r="P63" s="35"/>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
-      <c r="S63" s="64"/>
-      <c r="T63" s="63"/>
-      <c r="U63" s="64"/>
-      <c r="V63" s="66"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="50"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
     </row>
     <row r="65" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
     </row>
     <row r="66" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
@@ -3261,52 +3261,52 @@
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="67" t="s">
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="68"/>
-      <c r="N67" s="69"/>
-      <c r="O67" s="45" t="s">
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="45"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="45" t="s">
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="U67" s="45"/>
-      <c r="V67" s="45"/>
+      <c r="U67" s="71"/>
+      <c r="V67" s="71"/>
     </row>
     <row r="68" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="59"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="53"/>
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
       <c r="Q68" s="37"/>
@@ -3321,16 +3321,16 @@
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="59"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="53"/>
       <c r="O69" s="37"/>
       <c r="P69" s="37"/>
       <c r="Q69" s="37"/>
@@ -3341,20 +3341,20 @@
       <c r="V69" s="37"/>
     </row>
     <row r="70" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="59"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="53"/>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
       <c r="Q70" s="37"/>
@@ -3365,42 +3365,42 @@
       <c r="V70" s="37"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="T72" s="70" t="s">
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="T72" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="U72" s="70"/>
+      <c r="U72" s="81"/>
       <c r="V72" s="30"/>
     </row>
     <row r="73" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
-      <c r="V73" s="44"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
     </row>
     <row r="74" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
@@ -3425,38 +3425,38 @@
       <c r="A75" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="67" t="s">
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="67" t="s">
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="L75" s="68"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="67" t="s">
+      <c r="L75" s="83"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="O75" s="69"/>
-      <c r="P75" s="45" t="s">
+      <c r="O75" s="84"/>
+      <c r="P75" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="Q75" s="45"/>
-      <c r="R75" s="45"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="45" t="s">
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="U75" s="45"/>
+      <c r="U75" s="71"/>
       <c r="V75" s="27" t="s">
         <v>74</v>
       </c>
@@ -3481,9 +3481,9 @@
       <c r="Q76" s="37"/>
       <c r="R76" s="37"/>
       <c r="S76" s="37"/>
-      <c r="T76" s="60"/>
-      <c r="U76" s="62"/>
-      <c r="V76" s="65"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="49"/>
     </row>
     <row r="77" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
@@ -3505,9 +3505,9 @@
       <c r="Q77" s="37"/>
       <c r="R77" s="37"/>
       <c r="S77" s="37"/>
-      <c r="T77" s="63"/>
-      <c r="U77" s="64"/>
-      <c r="V77" s="66"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="50"/>
     </row>
     <row r="78" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
@@ -3529,9 +3529,9 @@
       <c r="Q78" s="37"/>
       <c r="R78" s="37"/>
       <c r="S78" s="37"/>
-      <c r="T78" s="60"/>
-      <c r="U78" s="62"/>
-      <c r="V78" s="65"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="49"/>
     </row>
     <row r="79" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
@@ -3553,9 +3553,9 @@
       <c r="Q79" s="37"/>
       <c r="R79" s="37"/>
       <c r="S79" s="37"/>
-      <c r="T79" s="63"/>
-      <c r="U79" s="64"/>
-      <c r="V79" s="66"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
@@ -3577,9 +3577,9 @@
       <c r="Q80" s="37"/>
       <c r="R80" s="37"/>
       <c r="S80" s="37"/>
-      <c r="T80" s="60"/>
-      <c r="U80" s="62"/>
-      <c r="V80" s="65"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="49"/>
     </row>
     <row r="81" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
@@ -3601,44 +3601,44 @@
       <c r="Q81" s="37"/>
       <c r="R81" s="37"/>
       <c r="S81" s="37"/>
-      <c r="T81" s="63"/>
-      <c r="U81" s="64"/>
-      <c r="V81" s="66"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="50"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
     </row>
     <row r="84" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
-      <c r="S84" s="44"/>
-      <c r="T84" s="44"/>
-      <c r="U84" s="44"/>
-      <c r="V84" s="44"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
     </row>
     <row r="85" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
@@ -3663,33 +3663,33 @@
       <c r="A86" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45" t="s">
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="N86" s="45"/>
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="45"/>
-      <c r="R86" s="45"/>
-      <c r="S86" s="45"/>
-      <c r="T86" s="45" t="s">
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
+      <c r="R86" s="71"/>
+      <c r="S86" s="71"/>
+      <c r="T86" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="U86" s="45"/>
-      <c r="V86" s="45"/>
+      <c r="U86" s="71"/>
+      <c r="V86" s="71"/>
     </row>
     <row r="87" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
@@ -3717,17 +3717,17 @@
     </row>
     <row r="88" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="71"/>
+      <c r="L88" s="71"/>
       <c r="M88" s="37"/>
       <c r="N88" s="37"/>
       <c r="O88" s="37"/>
@@ -3741,17 +3741,17 @@
     </row>
     <row r="89" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="71"/>
+      <c r="L89" s="71"/>
       <c r="M89" s="37"/>
       <c r="N89" s="37"/>
       <c r="O89" s="37"/>
@@ -3764,39 +3764,39 @@
       <c r="V89" s="37"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
     </row>
     <row r="92" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-      <c r="S92" s="44"/>
-      <c r="T92" s="44"/>
-      <c r="U92" s="44"/>
-      <c r="V92" s="44"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
     </row>
     <row r="93" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -3818,32 +3818,32 @@
       <c r="V93" s="1"/>
     </row>
     <row r="94" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
-      <c r="M94" s="45" t="s">
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="N94" s="45"/>
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
-      <c r="Q94" s="45"/>
-      <c r="R94" s="45"/>
-      <c r="S94" s="45"/>
-      <c r="T94" s="45"/>
-      <c r="U94" s="45"/>
-      <c r="V94" s="45"/>
+      <c r="N94" s="71"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="71"/>
+      <c r="Q94" s="71"/>
+      <c r="R94" s="71"/>
+      <c r="S94" s="71"/>
+      <c r="T94" s="71"/>
+      <c r="U94" s="71"/>
+      <c r="V94" s="71"/>
     </row>
     <row r="95" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
@@ -3918,39 +3918,39 @@
       <c r="V97" s="37"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="57" t="s">
+      <c r="A98" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
     </row>
     <row r="99" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="44"/>
-      <c r="T99" s="44"/>
-      <c r="U99" s="44"/>
-      <c r="V99" s="44"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
     </row>
     <row r="100" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
@@ -3972,30 +3972,30 @@
       <c r="V100" s="1"/>
     </row>
     <row r="101" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="45"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
-      <c r="Q101" s="45"/>
-      <c r="R101" s="45"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="45"/>
-      <c r="U101" s="45"/>
-      <c r="V101" s="45"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="71"/>
+      <c r="M101" s="71"/>
+      <c r="N101" s="71"/>
+      <c r="O101" s="71"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="71"/>
+      <c r="T101" s="71"/>
+      <c r="U101" s="71"/>
+      <c r="V101" s="71"/>
     </row>
     <row r="102" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
@@ -4022,39 +4022,39 @@
       <c r="V102" s="37"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
+      <c r="A104" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
     </row>
     <row r="105" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="44"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="44"/>
-      <c r="O105" s="44"/>
-      <c r="P105" s="44"/>
-      <c r="Q105" s="44"/>
-      <c r="R105" s="44"/>
-      <c r="S105" s="44"/>
-      <c r="T105" s="44"/>
-      <c r="U105" s="44"/>
-      <c r="V105" s="44"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="36"/>
+      <c r="U105" s="36"/>
+      <c r="V105" s="36"/>
     </row>
     <row r="106" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
@@ -4076,38 +4076,38 @@
       <c r="V106" s="1"/>
     </row>
     <row r="107" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="45" t="s">
+      <c r="A107" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45" t="s">
+      <c r="B107" s="71"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45" t="s">
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K107" s="45"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="45"/>
-      <c r="O107" s="45"/>
-      <c r="P107" s="45" t="s">
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="Q107" s="45"/>
-      <c r="R107" s="45"/>
-      <c r="S107" s="45"/>
-      <c r="T107" s="45"/>
-      <c r="U107" s="45" t="s">
+      <c r="Q107" s="71"/>
+      <c r="R107" s="71"/>
+      <c r="S107" s="71"/>
+      <c r="T107" s="71"/>
+      <c r="U107" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="V107" s="45"/>
+      <c r="V107" s="71"/>
     </row>
     <row r="108" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
@@ -4186,48 +4186,48 @@
       <c r="V110" s="37"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A112" s="57" t="s">
+      <c r="A112" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="M112" s="55" t="s">
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="M112" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="N112" s="48"/>
-      <c r="O112" s="48"/>
-      <c r="P112" s="48"/>
-      <c r="Q112" s="48"/>
-      <c r="R112" s="48"/>
-      <c r="S112" s="48"/>
+      <c r="N112" s="80"/>
+      <c r="O112" s="80"/>
+      <c r="P112" s="80"/>
+      <c r="Q112" s="80"/>
+      <c r="R112" s="80"/>
+      <c r="S112" s="80"/>
     </row>
     <row r="113" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="44"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="44"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-      <c r="S113" s="44"/>
-      <c r="T113" s="44"/>
-      <c r="U113" s="44"/>
-      <c r="V113" s="44"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="36"/>
+      <c r="S113" s="36"/>
+      <c r="T113" s="36"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="36"/>
     </row>
     <row r="114" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
@@ -4249,36 +4249,36 @@
       <c r="V114" s="1"/>
     </row>
     <row r="115" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="45" t="s">
+      <c r="A115" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45" t="s">
+      <c r="B115" s="71"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="G115" s="45"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
+      <c r="K115" s="71"/>
       <c r="L115" s="20"/>
-      <c r="M115" s="45" t="s">
+      <c r="M115" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="N115" s="45"/>
-      <c r="O115" s="45"/>
-      <c r="P115" s="45"/>
-      <c r="Q115" s="45"/>
-      <c r="R115" s="45"/>
-      <c r="S115" s="45"/>
-      <c r="T115" s="45"/>
-      <c r="U115" s="45" t="s">
+      <c r="N115" s="71"/>
+      <c r="O115" s="71"/>
+      <c r="P115" s="71"/>
+      <c r="Q115" s="71"/>
+      <c r="R115" s="71"/>
+      <c r="S115" s="71"/>
+      <c r="T115" s="71"/>
+      <c r="U115" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="V115" s="45"/>
+      <c r="V115" s="71"/>
     </row>
     <row r="116" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
@@ -4385,55 +4385,55 @@
       <c r="V119" s="7"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A120" s="71" t="s">
+      <c r="A120" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="72"/>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="72"/>
-      <c r="M120" s="72"/>
-      <c r="N120" s="72"/>
-      <c r="O120" s="72"/>
-      <c r="P120" s="72"/>
-      <c r="Q120" s="72"/>
-      <c r="R120" s="71" t="s">
+      <c r="B120" s="78"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="78"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="78"/>
+      <c r="H120" s="78"/>
+      <c r="I120" s="78"/>
+      <c r="J120" s="78"/>
+      <c r="K120" s="78"/>
+      <c r="L120" s="78"/>
+      <c r="M120" s="78"/>
+      <c r="N120" s="78"/>
+      <c r="O120" s="78"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="78"/>
+      <c r="R120" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="S120" s="72"/>
-      <c r="T120" s="71" t="s">
+      <c r="S120" s="78"/>
+      <c r="T120" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="U120" s="72"/>
-      <c r="V120" s="72"/>
+      <c r="U120" s="78"/>
+      <c r="V120" s="78"/>
     </row>
     <row r="121" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="73" t="s">
+      <c r="A121" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B121" s="73"/>
-      <c r="C121" s="73"/>
-      <c r="D121" s="73"/>
-      <c r="E121" s="73"/>
-      <c r="F121" s="73"/>
-      <c r="G121" s="73"/>
-      <c r="H121" s="73"/>
-      <c r="I121" s="73"/>
-      <c r="J121" s="73"/>
-      <c r="K121" s="73"/>
-      <c r="L121" s="73"/>
-      <c r="M121" s="73"/>
-      <c r="N121" s="73"/>
-      <c r="O121" s="73"/>
-      <c r="P121" s="73"/>
-      <c r="Q121" s="73"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="41"/>
       <c r="R121" s="37"/>
       <c r="S121" s="37"/>
       <c r="T121" s="37"/>
@@ -4441,25 +4441,25 @@
       <c r="V121" s="37"/>
     </row>
     <row r="122" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="73" t="s">
+      <c r="A122" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="73"/>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="73"/>
-      <c r="I122" s="73"/>
-      <c r="J122" s="73"/>
-      <c r="K122" s="73"/>
-      <c r="L122" s="73"/>
-      <c r="M122" s="73"/>
-      <c r="N122" s="73"/>
-      <c r="O122" s="73"/>
-      <c r="P122" s="73"/>
-      <c r="Q122" s="73"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
       <c r="R122" s="37"/>
       <c r="S122" s="37"/>
       <c r="T122" s="37"/>
@@ -4467,25 +4467,25 @@
       <c r="V122" s="37"/>
     </row>
     <row r="123" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="73" t="s">
+      <c r="A123" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B123" s="73"/>
-      <c r="C123" s="73"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="73"/>
-      <c r="G123" s="73"/>
-      <c r="H123" s="73"/>
-      <c r="I123" s="73"/>
-      <c r="J123" s="73"/>
-      <c r="K123" s="73"/>
-      <c r="L123" s="73"/>
-      <c r="M123" s="73"/>
-      <c r="N123" s="73"/>
-      <c r="O123" s="73"/>
-      <c r="P123" s="73"/>
-      <c r="Q123" s="73"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
       <c r="R123" s="37"/>
       <c r="S123" s="37"/>
       <c r="T123" s="37"/>
@@ -4493,25 +4493,25 @@
       <c r="V123" s="37"/>
     </row>
     <row r="124" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="73" t="s">
+      <c r="A124" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="73"/>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="73"/>
-      <c r="H124" s="73"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="73"/>
-      <c r="K124" s="73"/>
-      <c r="L124" s="73"/>
-      <c r="M124" s="73"/>
-      <c r="N124" s="73"/>
-      <c r="O124" s="73"/>
-      <c r="P124" s="73"/>
-      <c r="Q124" s="73"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
       <c r="R124" s="37"/>
       <c r="S124" s="37"/>
       <c r="T124" s="37"/>
@@ -4519,25 +4519,25 @@
       <c r="V124" s="37"/>
     </row>
     <row r="125" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="73" t="s">
+      <c r="A125" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B125" s="73"/>
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="73"/>
-      <c r="H125" s="73"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="73"/>
-      <c r="K125" s="73"/>
-      <c r="L125" s="73"/>
-      <c r="M125" s="73"/>
-      <c r="N125" s="73"/>
-      <c r="O125" s="73"/>
-      <c r="P125" s="73"/>
-      <c r="Q125" s="73"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="41"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="41"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="41"/>
       <c r="R125" s="37"/>
       <c r="S125" s="37"/>
       <c r="T125" s="37"/>
@@ -4545,25 +4545,25 @@
       <c r="V125" s="37"/>
     </row>
     <row r="126" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="73" t="s">
+      <c r="A126" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B126" s="73"/>
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="73"/>
-      <c r="H126" s="73"/>
-      <c r="I126" s="73"/>
-      <c r="J126" s="73"/>
-      <c r="K126" s="73"/>
-      <c r="L126" s="73"/>
-      <c r="M126" s="73"/>
-      <c r="N126" s="73"/>
-      <c r="O126" s="73"/>
-      <c r="P126" s="73"/>
-      <c r="Q126" s="73"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
+      <c r="P126" s="41"/>
+      <c r="Q126" s="41"/>
       <c r="R126" s="37"/>
       <c r="S126" s="37"/>
       <c r="T126" s="37"/>
@@ -4571,25 +4571,25 @@
       <c r="V126" s="37"/>
     </row>
     <row r="127" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="73" t="s">
+      <c r="A127" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
-      <c r="K127" s="73"/>
-      <c r="L127" s="73"/>
-      <c r="M127" s="73"/>
-      <c r="N127" s="73"/>
-      <c r="O127" s="73"/>
-      <c r="P127" s="73"/>
-      <c r="Q127" s="73"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
+      <c r="L127" s="41"/>
+      <c r="M127" s="41"/>
+      <c r="N127" s="41"/>
+      <c r="O127" s="41"/>
+      <c r="P127" s="41"/>
+      <c r="Q127" s="41"/>
       <c r="R127" s="37"/>
       <c r="S127" s="37"/>
       <c r="T127" s="37"/>
@@ -4597,25 +4597,25 @@
       <c r="V127" s="37"/>
     </row>
     <row r="128" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="73" t="s">
+      <c r="A128" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B128" s="73"/>
-      <c r="C128" s="73"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="73"/>
-      <c r="G128" s="73"/>
-      <c r="H128" s="73"/>
-      <c r="I128" s="73"/>
-      <c r="J128" s="73"/>
-      <c r="K128" s="73"/>
-      <c r="L128" s="73"/>
-      <c r="M128" s="73"/>
-      <c r="N128" s="73"/>
-      <c r="O128" s="73"/>
-      <c r="P128" s="73"/>
-      <c r="Q128" s="73"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="41"/>
+      <c r="O128" s="41"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="41"/>
       <c r="R128" s="37"/>
       <c r="S128" s="37"/>
       <c r="T128" s="37"/>
@@ -4623,25 +4623,25 @@
       <c r="V128" s="37"/>
     </row>
     <row r="129" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="78" t="s">
+      <c r="A129" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B129" s="78"/>
-      <c r="C129" s="78"/>
-      <c r="D129" s="78"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="78"/>
-      <c r="H129" s="78"/>
-      <c r="I129" s="78"/>
-      <c r="J129" s="78"/>
-      <c r="K129" s="78"/>
-      <c r="L129" s="78"/>
-      <c r="M129" s="78"/>
-      <c r="N129" s="78"/>
-      <c r="O129" s="78"/>
-      <c r="P129" s="78"/>
-      <c r="Q129" s="78"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="76"/>
+      <c r="M129" s="76"/>
+      <c r="N129" s="76"/>
+      <c r="O129" s="76"/>
+      <c r="P129" s="76"/>
+      <c r="Q129" s="76"/>
       <c r="R129" s="37"/>
       <c r="S129" s="37"/>
       <c r="T129" s="37"/>
@@ -4649,23 +4649,23 @@
       <c r="V129" s="37"/>
     </row>
     <row r="130" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="78"/>
-      <c r="B130" s="78"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="78"/>
-      <c r="H130" s="78"/>
-      <c r="I130" s="78"/>
-      <c r="J130" s="78"/>
-      <c r="K130" s="78"/>
-      <c r="L130" s="78"/>
-      <c r="M130" s="78"/>
-      <c r="N130" s="78"/>
-      <c r="O130" s="78"/>
-      <c r="P130" s="78"/>
-      <c r="Q130" s="78"/>
+      <c r="A130" s="76"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="76"/>
+      <c r="J130" s="76"/>
+      <c r="K130" s="76"/>
+      <c r="L130" s="76"/>
+      <c r="M130" s="76"/>
+      <c r="N130" s="76"/>
+      <c r="O130" s="76"/>
+      <c r="P130" s="76"/>
+      <c r="Q130" s="76"/>
       <c r="R130" s="37"/>
       <c r="S130" s="37"/>
       <c r="T130" s="37"/>
@@ -4673,23 +4673,23 @@
       <c r="V130" s="37"/>
     </row>
     <row r="131" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="78"/>
-      <c r="B131" s="78"/>
-      <c r="C131" s="78"/>
-      <c r="D131" s="78"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78"/>
-      <c r="H131" s="78"/>
-      <c r="I131" s="78"/>
-      <c r="J131" s="78"/>
-      <c r="K131" s="78"/>
-      <c r="L131" s="78"/>
-      <c r="M131" s="78"/>
-      <c r="N131" s="78"/>
-      <c r="O131" s="78"/>
-      <c r="P131" s="78"/>
-      <c r="Q131" s="78"/>
+      <c r="A131" s="76"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="76"/>
+      <c r="I131" s="76"/>
+      <c r="J131" s="76"/>
+      <c r="K131" s="76"/>
+      <c r="L131" s="76"/>
+      <c r="M131" s="76"/>
+      <c r="N131" s="76"/>
+      <c r="O131" s="76"/>
+      <c r="P131" s="76"/>
+      <c r="Q131" s="76"/>
       <c r="R131" s="37"/>
       <c r="S131" s="37"/>
       <c r="T131" s="37"/>
@@ -4697,137 +4697,137 @@
       <c r="V131" s="37"/>
     </row>
     <row r="132" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="74" t="s">
+      <c r="A132" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B132" s="75"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="75"/>
-      <c r="E132" s="75"/>
-      <c r="F132" s="75"/>
-      <c r="G132" s="75"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="75"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="75"/>
-      <c r="P132" s="75"/>
-      <c r="Q132" s="75"/>
-      <c r="R132" s="75"/>
-      <c r="S132" s="75"/>
-      <c r="T132" s="75"/>
-      <c r="U132" s="75"/>
-      <c r="V132" s="76"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="73"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="73"/>
+      <c r="H132" s="73"/>
+      <c r="I132" s="73"/>
+      <c r="J132" s="73"/>
+      <c r="K132" s="73"/>
+      <c r="L132" s="73"/>
+      <c r="M132" s="73"/>
+      <c r="N132" s="73"/>
+      <c r="O132" s="73"/>
+      <c r="P132" s="73"/>
+      <c r="Q132" s="73"/>
+      <c r="R132" s="73"/>
+      <c r="S132" s="73"/>
+      <c r="T132" s="73"/>
+      <c r="U132" s="73"/>
+      <c r="V132" s="74"/>
     </row>
     <row r="133" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="77"/>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="77"/>
-      <c r="H133" s="77"/>
-      <c r="I133" s="77"/>
-      <c r="J133" s="77"/>
-      <c r="K133" s="77"/>
-      <c r="L133" s="77"/>
-      <c r="M133" s="77"/>
-      <c r="N133" s="77"/>
-      <c r="O133" s="77"/>
-      <c r="P133" s="77"/>
-      <c r="Q133" s="77"/>
-      <c r="R133" s="77"/>
-      <c r="S133" s="77"/>
-      <c r="T133" s="77"/>
-      <c r="U133" s="77"/>
-      <c r="V133" s="77"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="75"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="75"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
+      <c r="P133" s="75"/>
+      <c r="Q133" s="75"/>
+      <c r="R133" s="75"/>
+      <c r="S133" s="75"/>
+      <c r="T133" s="75"/>
+      <c r="U133" s="75"/>
+      <c r="V133" s="75"/>
     </row>
     <row r="134" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="77"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="77"/>
-      <c r="G134" s="77"/>
-      <c r="H134" s="77"/>
-      <c r="I134" s="77"/>
-      <c r="J134" s="77"/>
-      <c r="K134" s="77"/>
-      <c r="L134" s="77"/>
-      <c r="M134" s="77"/>
-      <c r="N134" s="77"/>
-      <c r="O134" s="77"/>
-      <c r="P134" s="77"/>
-      <c r="Q134" s="77"/>
-      <c r="R134" s="77"/>
-      <c r="S134" s="77"/>
-      <c r="T134" s="77"/>
-      <c r="U134" s="77"/>
-      <c r="V134" s="77"/>
+      <c r="A134" s="75"/>
+      <c r="B134" s="75"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="75"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="75"/>
+      <c r="N134" s="75"/>
+      <c r="O134" s="75"/>
+      <c r="P134" s="75"/>
+      <c r="Q134" s="75"/>
+      <c r="R134" s="75"/>
+      <c r="S134" s="75"/>
+      <c r="T134" s="75"/>
+      <c r="U134" s="75"/>
+      <c r="V134" s="75"/>
     </row>
     <row r="135" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
-      <c r="B135" s="77"/>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="77"/>
-      <c r="G135" s="77"/>
-      <c r="H135" s="77"/>
-      <c r="I135" s="77"/>
-      <c r="J135" s="77"/>
-      <c r="K135" s="77"/>
-      <c r="L135" s="77"/>
-      <c r="M135" s="77"/>
-      <c r="N135" s="77"/>
-      <c r="O135" s="77"/>
-      <c r="P135" s="77"/>
-      <c r="Q135" s="77"/>
-      <c r="R135" s="77"/>
-      <c r="S135" s="77"/>
-      <c r="T135" s="77"/>
-      <c r="U135" s="77"/>
-      <c r="V135" s="77"/>
+      <c r="A135" s="75"/>
+      <c r="B135" s="75"/>
+      <c r="C135" s="75"/>
+      <c r="D135" s="75"/>
+      <c r="E135" s="75"/>
+      <c r="F135" s="75"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="75"/>
+      <c r="I135" s="75"/>
+      <c r="J135" s="75"/>
+      <c r="K135" s="75"/>
+      <c r="L135" s="75"/>
+      <c r="M135" s="75"/>
+      <c r="N135" s="75"/>
+      <c r="O135" s="75"/>
+      <c r="P135" s="75"/>
+      <c r="Q135" s="75"/>
+      <c r="R135" s="75"/>
+      <c r="S135" s="75"/>
+      <c r="T135" s="75"/>
+      <c r="U135" s="75"/>
+      <c r="V135" s="75"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A137" s="57" t="s">
+      <c r="A137" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
     </row>
     <row r="138" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="44"/>
-      <c r="K138" s="44"/>
-      <c r="L138" s="44"/>
-      <c r="M138" s="44"/>
-      <c r="N138" s="44"/>
-      <c r="O138" s="44"/>
-      <c r="P138" s="44"/>
-      <c r="Q138" s="44"/>
-      <c r="R138" s="44"/>
-      <c r="S138" s="44"/>
-      <c r="T138" s="44"/>
-      <c r="U138" s="44"/>
-      <c r="V138" s="44"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="36"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="36"/>
+      <c r="Q138" s="36"/>
+      <c r="R138" s="36"/>
+      <c r="S138" s="36"/>
+      <c r="T138" s="36"/>
+      <c r="U138" s="36"/>
+      <c r="V138" s="36"/>
     </row>
     <row r="139" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
@@ -4849,36 +4849,36 @@
       <c r="V139" s="1"/>
     </row>
     <row r="140" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="45" t="s">
+      <c r="A140" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45" t="s">
+      <c r="B140" s="71"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="G140" s="45"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
-      <c r="J140" s="45"/>
-      <c r="K140" s="45"/>
-      <c r="L140" s="45"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="45"/>
-      <c r="P140" s="45"/>
-      <c r="Q140" s="45" t="s">
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="71"/>
+      <c r="M140" s="71"/>
+      <c r="N140" s="71"/>
+      <c r="O140" s="71"/>
+      <c r="P140" s="71"/>
+      <c r="Q140" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="R140" s="45"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
-      <c r="U140" s="45" t="s">
+      <c r="R140" s="71"/>
+      <c r="S140" s="71"/>
+      <c r="T140" s="71"/>
+      <c r="U140" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="V140" s="45"/>
+      <c r="V140" s="71"/>
     </row>
     <row r="141" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="37"/>
@@ -4929,39 +4929,39 @@
       <c r="V142" s="37"/>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A144" s="57" t="s">
+      <c r="A144" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
     </row>
     <row r="145" spans="1:22" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
-      <c r="J145" s="44"/>
-      <c r="K145" s="44"/>
-      <c r="L145" s="44"/>
-      <c r="M145" s="44"/>
-      <c r="N145" s="44"/>
-      <c r="O145" s="44"/>
-      <c r="P145" s="44"/>
-      <c r="Q145" s="44"/>
-      <c r="R145" s="44"/>
-      <c r="S145" s="44"/>
-      <c r="T145" s="44"/>
-      <c r="U145" s="44"/>
-      <c r="V145" s="44"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="36"/>
+      <c r="N145" s="36"/>
+      <c r="O145" s="36"/>
+      <c r="P145" s="36"/>
+      <c r="Q145" s="36"/>
+      <c r="R145" s="36"/>
+      <c r="S145" s="36"/>
+      <c r="T145" s="36"/>
+      <c r="U145" s="36"/>
+      <c r="V145" s="36"/>
     </row>
     <row r="146" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
@@ -4983,36 +4983,36 @@
       <c r="V146" s="1"/>
     </row>
     <row r="147" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="45" t="s">
+      <c r="A147" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B147" s="45"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45" t="s">
+      <c r="B147" s="71"/>
+      <c r="C147" s="71"/>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="G147" s="45"/>
-      <c r="H147" s="45"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="45"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="45"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45" t="s">
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="71"/>
+      <c r="M147" s="71"/>
+      <c r="N147" s="71"/>
+      <c r="O147" s="71"/>
+      <c r="P147" s="71"/>
+      <c r="Q147" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45"/>
-      <c r="T147" s="45"/>
-      <c r="U147" s="45" t="s">
+      <c r="R147" s="71"/>
+      <c r="S147" s="71"/>
+      <c r="T147" s="71"/>
+      <c r="U147" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="V147" s="45"/>
+      <c r="V147" s="71"/>
     </row>
     <row r="148" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="37"/>
@@ -5063,610 +5063,610 @@
       <c r="V149" s="37"/>
     </row>
     <row r="151" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="73" t="s">
+      <c r="A151" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B151" s="98"/>
-      <c r="C151" s="98"/>
-      <c r="D151" s="98"/>
-      <c r="E151" s="98"/>
-      <c r="F151" s="98"/>
-      <c r="G151" s="98"/>
-      <c r="H151" s="98"/>
-      <c r="I151" s="98"/>
-      <c r="J151" s="98"/>
-      <c r="K151" s="98"/>
-      <c r="L151" s="98"/>
-      <c r="M151" s="98"/>
-      <c r="N151" s="98"/>
-      <c r="O151" s="98"/>
-      <c r="P151" s="98"/>
-      <c r="Q151" s="98"/>
-      <c r="R151" s="98"/>
-      <c r="S151" s="98"/>
-      <c r="T151" s="98"/>
-      <c r="U151" s="98"/>
-      <c r="V151" s="98"/>
+      <c r="B151" s="69"/>
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="69"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="69"/>
+      <c r="M151" s="69"/>
+      <c r="N151" s="69"/>
+      <c r="O151" s="69"/>
+      <c r="P151" s="69"/>
+      <c r="Q151" s="69"/>
+      <c r="R151" s="69"/>
+      <c r="S151" s="69"/>
+      <c r="T151" s="69"/>
+      <c r="U151" s="69"/>
+      <c r="V151" s="69"/>
     </row>
     <row r="152" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="84"/>
-      <c r="B152" s="85"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
-      <c r="G152" s="85"/>
-      <c r="H152" s="85"/>
-      <c r="I152" s="85"/>
-      <c r="J152" s="85"/>
-      <c r="K152" s="85"/>
-      <c r="L152" s="85"/>
-      <c r="M152" s="85"/>
-      <c r="N152" s="85"/>
-      <c r="O152" s="85"/>
-      <c r="P152" s="85"/>
-      <c r="Q152" s="85"/>
-      <c r="R152" s="85"/>
-      <c r="S152" s="85"/>
-      <c r="T152" s="85"/>
-      <c r="U152" s="85"/>
-      <c r="V152" s="86"/>
+      <c r="A152" s="55"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="56"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
+      <c r="M152" s="56"/>
+      <c r="N152" s="56"/>
+      <c r="O152" s="56"/>
+      <c r="P152" s="56"/>
+      <c r="Q152" s="56"/>
+      <c r="R152" s="56"/>
+      <c r="S152" s="56"/>
+      <c r="T152" s="56"/>
+      <c r="U152" s="56"/>
+      <c r="V152" s="57"/>
     </row>
     <row r="153" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="87"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="88"/>
-      <c r="D153" s="88"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="88"/>
-      <c r="G153" s="88"/>
-      <c r="H153" s="88"/>
-      <c r="I153" s="88"/>
-      <c r="J153" s="88"/>
-      <c r="K153" s="88"/>
-      <c r="L153" s="88"/>
-      <c r="M153" s="88"/>
-      <c r="N153" s="88"/>
-      <c r="O153" s="88"/>
-      <c r="P153" s="88"/>
-      <c r="Q153" s="88"/>
-      <c r="R153" s="88"/>
-      <c r="S153" s="88"/>
-      <c r="T153" s="88"/>
-      <c r="U153" s="88"/>
-      <c r="V153" s="89"/>
+      <c r="A153" s="58"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="59"/>
+      <c r="L153" s="59"/>
+      <c r="M153" s="59"/>
+      <c r="N153" s="59"/>
+      <c r="O153" s="59"/>
+      <c r="P153" s="59"/>
+      <c r="Q153" s="59"/>
+      <c r="R153" s="59"/>
+      <c r="S153" s="59"/>
+      <c r="T153" s="59"/>
+      <c r="U153" s="59"/>
+      <c r="V153" s="60"/>
     </row>
     <row r="154" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="87"/>
-      <c r="B154" s="88"/>
-      <c r="C154" s="88"/>
-      <c r="D154" s="88"/>
-      <c r="E154" s="88"/>
-      <c r="F154" s="88"/>
-      <c r="G154" s="88"/>
-      <c r="H154" s="88"/>
-      <c r="I154" s="88"/>
-      <c r="J154" s="88"/>
-      <c r="K154" s="88"/>
-      <c r="L154" s="88"/>
-      <c r="M154" s="88"/>
-      <c r="N154" s="88"/>
-      <c r="O154" s="88"/>
-      <c r="P154" s="88"/>
-      <c r="Q154" s="88"/>
-      <c r="R154" s="88"/>
-      <c r="S154" s="88"/>
-      <c r="T154" s="88"/>
-      <c r="U154" s="88"/>
-      <c r="V154" s="89"/>
+      <c r="A154" s="58"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="59"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="59"/>
+      <c r="L154" s="59"/>
+      <c r="M154" s="59"/>
+      <c r="N154" s="59"/>
+      <c r="O154" s="59"/>
+      <c r="P154" s="59"/>
+      <c r="Q154" s="59"/>
+      <c r="R154" s="59"/>
+      <c r="S154" s="59"/>
+      <c r="T154" s="59"/>
+      <c r="U154" s="59"/>
+      <c r="V154" s="60"/>
     </row>
     <row r="155" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="87"/>
-      <c r="B155" s="88"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="88"/>
-      <c r="G155" s="88"/>
-      <c r="H155" s="88"/>
-      <c r="I155" s="88"/>
-      <c r="J155" s="88"/>
-      <c r="K155" s="88"/>
-      <c r="L155" s="88"/>
-      <c r="M155" s="88"/>
-      <c r="N155" s="88"/>
-      <c r="O155" s="88"/>
-      <c r="P155" s="88"/>
-      <c r="Q155" s="88"/>
-      <c r="R155" s="88"/>
-      <c r="S155" s="88"/>
-      <c r="T155" s="88"/>
-      <c r="U155" s="88"/>
-      <c r="V155" s="89"/>
+      <c r="A155" s="58"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="59"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="59"/>
+      <c r="H155" s="59"/>
+      <c r="I155" s="59"/>
+      <c r="J155" s="59"/>
+      <c r="K155" s="59"/>
+      <c r="L155" s="59"/>
+      <c r="M155" s="59"/>
+      <c r="N155" s="59"/>
+      <c r="O155" s="59"/>
+      <c r="P155" s="59"/>
+      <c r="Q155" s="59"/>
+      <c r="R155" s="59"/>
+      <c r="S155" s="59"/>
+      <c r="T155" s="59"/>
+      <c r="U155" s="59"/>
+      <c r="V155" s="60"/>
     </row>
     <row r="156" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="87"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="88"/>
-      <c r="D156" s="88"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="88"/>
-      <c r="G156" s="88"/>
-      <c r="H156" s="88"/>
-      <c r="I156" s="88"/>
-      <c r="J156" s="88"/>
-      <c r="K156" s="88"/>
-      <c r="L156" s="88"/>
-      <c r="M156" s="88"/>
-      <c r="N156" s="88"/>
-      <c r="O156" s="88"/>
-      <c r="P156" s="88"/>
-      <c r="Q156" s="88"/>
-      <c r="R156" s="88"/>
-      <c r="S156" s="88"/>
-      <c r="T156" s="88"/>
-      <c r="U156" s="88"/>
-      <c r="V156" s="89"/>
+      <c r="A156" s="58"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="59"/>
+      <c r="E156" s="59"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="59"/>
+      <c r="H156" s="59"/>
+      <c r="I156" s="59"/>
+      <c r="J156" s="59"/>
+      <c r="K156" s="59"/>
+      <c r="L156" s="59"/>
+      <c r="M156" s="59"/>
+      <c r="N156" s="59"/>
+      <c r="O156" s="59"/>
+      <c r="P156" s="59"/>
+      <c r="Q156" s="59"/>
+      <c r="R156" s="59"/>
+      <c r="S156" s="59"/>
+      <c r="T156" s="59"/>
+      <c r="U156" s="59"/>
+      <c r="V156" s="60"/>
     </row>
     <row r="157" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="90"/>
-      <c r="B157" s="91"/>
-      <c r="C157" s="91"/>
-      <c r="D157" s="91"/>
-      <c r="E157" s="91"/>
-      <c r="F157" s="91"/>
-      <c r="G157" s="91"/>
-      <c r="H157" s="91"/>
-      <c r="I157" s="91"/>
-      <c r="J157" s="91"/>
-      <c r="K157" s="91"/>
-      <c r="L157" s="91"/>
-      <c r="M157" s="91"/>
-      <c r="N157" s="91"/>
-      <c r="O157" s="91"/>
-      <c r="P157" s="91"/>
-      <c r="Q157" s="91"/>
-      <c r="R157" s="91"/>
-      <c r="S157" s="91"/>
-      <c r="T157" s="91"/>
-      <c r="U157" s="91"/>
-      <c r="V157" s="92"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="62"/>
+      <c r="D157" s="62"/>
+      <c r="E157" s="62"/>
+      <c r="F157" s="62"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="62"/>
+      <c r="I157" s="62"/>
+      <c r="J157" s="62"/>
+      <c r="K157" s="62"/>
+      <c r="L157" s="62"/>
+      <c r="M157" s="62"/>
+      <c r="N157" s="62"/>
+      <c r="O157" s="62"/>
+      <c r="P157" s="62"/>
+      <c r="Q157" s="62"/>
+      <c r="R157" s="62"/>
+      <c r="S157" s="62"/>
+      <c r="T157" s="62"/>
+      <c r="U157" s="62"/>
+      <c r="V157" s="63"/>
     </row>
     <row r="159" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="36" t="s">
+      <c r="A159" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B159" s="36"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="36"/>
-      <c r="L159" s="36"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="34"/>
+      <c r="I159" s="34"/>
+      <c r="J159" s="34"/>
+      <c r="K159" s="34"/>
+      <c r="L159" s="34"/>
       <c r="M159" s="35"/>
       <c r="N159" s="35"/>
       <c r="O159" s="17"/>
       <c r="P159" s="17"/>
       <c r="Q159" s="17"/>
-      <c r="R159" s="93"/>
-      <c r="S159" s="93"/>
+      <c r="R159" s="64"/>
+      <c r="S159" s="64"/>
       <c r="T159" s="17"/>
       <c r="U159" s="17"/>
       <c r="V159" s="17"/>
     </row>
     <row r="160" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="81" t="s">
+      <c r="A160" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B160" s="81"/>
-      <c r="C160" s="81"/>
-      <c r="D160" s="81"/>
-      <c r="E160" s="81"/>
-      <c r="F160" s="81"/>
-      <c r="G160" s="81"/>
-      <c r="H160" s="81"/>
-      <c r="I160" s="81"/>
-      <c r="J160" s="81"/>
-      <c r="K160" s="81"/>
-      <c r="L160" s="81"/>
-      <c r="M160" s="81"/>
-      <c r="N160" s="81"/>
-      <c r="O160" s="81"/>
-      <c r="P160" s="81"/>
-      <c r="Q160" s="81"/>
-      <c r="R160" s="81"/>
-      <c r="S160" s="81"/>
-      <c r="T160" s="81"/>
-      <c r="U160" s="81"/>
-      <c r="V160" s="81"/>
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="42"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="42"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="42"/>
+      <c r="M160" s="42"/>
+      <c r="N160" s="42"/>
+      <c r="O160" s="42"/>
+      <c r="P160" s="42"/>
+      <c r="Q160" s="42"/>
+      <c r="R160" s="42"/>
+      <c r="S160" s="42"/>
+      <c r="T160" s="42"/>
+      <c r="U160" s="42"/>
+      <c r="V160" s="42"/>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A161" s="81"/>
-      <c r="B161" s="81"/>
-      <c r="C161" s="81"/>
-      <c r="D161" s="81"/>
-      <c r="E161" s="81"/>
-      <c r="F161" s="81"/>
-      <c r="G161" s="81"/>
-      <c r="H161" s="81"/>
-      <c r="I161" s="81"/>
-      <c r="J161" s="81"/>
-      <c r="K161" s="81"/>
-      <c r="L161" s="81"/>
-      <c r="M161" s="81"/>
-      <c r="N161" s="81"/>
-      <c r="O161" s="81"/>
-      <c r="P161" s="81"/>
-      <c r="Q161" s="81"/>
-      <c r="R161" s="81"/>
-      <c r="S161" s="81"/>
-      <c r="T161" s="81"/>
-      <c r="U161" s="81"/>
-      <c r="V161" s="81"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="42"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="42"/>
+      <c r="K161" s="42"/>
+      <c r="L161" s="42"/>
+      <c r="M161" s="42"/>
+      <c r="N161" s="42"/>
+      <c r="O161" s="42"/>
+      <c r="P161" s="42"/>
+      <c r="Q161" s="42"/>
+      <c r="R161" s="42"/>
+      <c r="S161" s="42"/>
+      <c r="T161" s="42"/>
+      <c r="U161" s="42"/>
+      <c r="V161" s="42"/>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A162" s="81"/>
-      <c r="B162" s="81"/>
-      <c r="C162" s="81"/>
-      <c r="D162" s="81"/>
-      <c r="E162" s="81"/>
-      <c r="F162" s="81"/>
-      <c r="G162" s="81"/>
-      <c r="H162" s="81"/>
-      <c r="I162" s="81"/>
-      <c r="J162" s="81"/>
-      <c r="K162" s="81"/>
-      <c r="L162" s="81"/>
-      <c r="M162" s="81"/>
-      <c r="N162" s="81"/>
-      <c r="O162" s="81"/>
-      <c r="P162" s="81"/>
-      <c r="Q162" s="81"/>
-      <c r="R162" s="81"/>
-      <c r="S162" s="81"/>
-      <c r="T162" s="81"/>
-      <c r="U162" s="81"/>
-      <c r="V162" s="81"/>
+      <c r="A162" s="42"/>
+      <c r="B162" s="42"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
+      <c r="G162" s="42"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="42"/>
+      <c r="M162" s="42"/>
+      <c r="N162" s="42"/>
+      <c r="O162" s="42"/>
+      <c r="P162" s="42"/>
+      <c r="Q162" s="42"/>
+      <c r="R162" s="42"/>
+      <c r="S162" s="42"/>
+      <c r="T162" s="42"/>
+      <c r="U162" s="42"/>
+      <c r="V162" s="42"/>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A163" s="81"/>
-      <c r="B163" s="81"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="81"/>
-      <c r="E163" s="81"/>
-      <c r="F163" s="81"/>
-      <c r="G163" s="81"/>
-      <c r="H163" s="81"/>
-      <c r="I163" s="81"/>
-      <c r="J163" s="81"/>
-      <c r="K163" s="81"/>
-      <c r="L163" s="81"/>
-      <c r="M163" s="81"/>
-      <c r="N163" s="81"/>
-      <c r="O163" s="81"/>
-      <c r="P163" s="81"/>
-      <c r="Q163" s="81"/>
-      <c r="R163" s="81"/>
-      <c r="S163" s="81"/>
-      <c r="T163" s="81"/>
-      <c r="U163" s="81"/>
-      <c r="V163" s="81"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="42"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="42"/>
+      <c r="M163" s="42"/>
+      <c r="N163" s="42"/>
+      <c r="O163" s="42"/>
+      <c r="P163" s="42"/>
+      <c r="Q163" s="42"/>
+      <c r="R163" s="42"/>
+      <c r="S163" s="42"/>
+      <c r="T163" s="42"/>
+      <c r="U163" s="42"/>
+      <c r="V163" s="42"/>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A164" s="81"/>
-      <c r="B164" s="81"/>
-      <c r="C164" s="81"/>
-      <c r="D164" s="81"/>
-      <c r="E164" s="81"/>
-      <c r="F164" s="81"/>
-      <c r="G164" s="81"/>
-      <c r="H164" s="81"/>
-      <c r="I164" s="81"/>
-      <c r="J164" s="81"/>
-      <c r="K164" s="81"/>
-      <c r="L164" s="81"/>
-      <c r="M164" s="81"/>
-      <c r="N164" s="81"/>
-      <c r="O164" s="81"/>
-      <c r="P164" s="81"/>
-      <c r="Q164" s="81"/>
-      <c r="R164" s="81"/>
-      <c r="S164" s="81"/>
-      <c r="T164" s="81"/>
-      <c r="U164" s="81"/>
-      <c r="V164" s="81"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="42"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="42"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="42"/>
+      <c r="M164" s="42"/>
+      <c r="N164" s="42"/>
+      <c r="O164" s="42"/>
+      <c r="P164" s="42"/>
+      <c r="Q164" s="42"/>
+      <c r="R164" s="42"/>
+      <c r="S164" s="42"/>
+      <c r="T164" s="42"/>
+      <c r="U164" s="42"/>
+      <c r="V164" s="42"/>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A165" s="81"/>
-      <c r="B165" s="81"/>
-      <c r="C165" s="81"/>
-      <c r="D165" s="81"/>
-      <c r="E165" s="81"/>
-      <c r="F165" s="81"/>
-      <c r="G165" s="81"/>
-      <c r="H165" s="81"/>
-      <c r="I165" s="81"/>
-      <c r="J165" s="81"/>
-      <c r="K165" s="81"/>
-      <c r="L165" s="81"/>
-      <c r="M165" s="81"/>
-      <c r="N165" s="81"/>
-      <c r="O165" s="81"/>
-      <c r="P165" s="81"/>
-      <c r="Q165" s="81"/>
-      <c r="R165" s="81"/>
-      <c r="S165" s="81"/>
-      <c r="T165" s="81"/>
-      <c r="U165" s="81"/>
-      <c r="V165" s="81"/>
+      <c r="A165" s="42"/>
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="42"/>
+      <c r="M165" s="42"/>
+      <c r="N165" s="42"/>
+      <c r="O165" s="42"/>
+      <c r="P165" s="42"/>
+      <c r="Q165" s="42"/>
+      <c r="R165" s="42"/>
+      <c r="S165" s="42"/>
+      <c r="T165" s="42"/>
+      <c r="U165" s="42"/>
+      <c r="V165" s="42"/>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A166" s="81"/>
-      <c r="B166" s="81"/>
-      <c r="C166" s="81"/>
-      <c r="D166" s="81"/>
-      <c r="E166" s="81"/>
-      <c r="F166" s="81"/>
-      <c r="G166" s="81"/>
-      <c r="H166" s="81"/>
-      <c r="I166" s="81"/>
-      <c r="J166" s="81"/>
-      <c r="K166" s="81"/>
-      <c r="L166" s="81"/>
-      <c r="M166" s="81"/>
-      <c r="N166" s="81"/>
-      <c r="O166" s="81"/>
-      <c r="P166" s="81"/>
-      <c r="Q166" s="81"/>
-      <c r="R166" s="81"/>
-      <c r="S166" s="81"/>
-      <c r="T166" s="81"/>
-      <c r="U166" s="81"/>
-      <c r="V166" s="81"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="42"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="42"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="42"/>
+      <c r="O166" s="42"/>
+      <c r="P166" s="42"/>
+      <c r="Q166" s="42"/>
+      <c r="R166" s="42"/>
+      <c r="S166" s="42"/>
+      <c r="T166" s="42"/>
+      <c r="U166" s="42"/>
+      <c r="V166" s="42"/>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A167" s="81"/>
-      <c r="B167" s="81"/>
-      <c r="C167" s="81"/>
-      <c r="D167" s="81"/>
-      <c r="E167" s="81"/>
-      <c r="F167" s="81"/>
-      <c r="G167" s="81"/>
-      <c r="H167" s="81"/>
-      <c r="I167" s="81"/>
-      <c r="J167" s="81"/>
-      <c r="K167" s="81"/>
-      <c r="L167" s="81"/>
-      <c r="M167" s="81"/>
-      <c r="N167" s="81"/>
-      <c r="O167" s="81"/>
-      <c r="P167" s="81"/>
-      <c r="Q167" s="81"/>
-      <c r="R167" s="81"/>
-      <c r="S167" s="81"/>
-      <c r="T167" s="81"/>
-      <c r="U167" s="81"/>
-      <c r="V167" s="81"/>
+      <c r="A167" s="42"/>
+      <c r="B167" s="42"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="42"/>
+      <c r="J167" s="42"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="42"/>
+      <c r="M167" s="42"/>
+      <c r="N167" s="42"/>
+      <c r="O167" s="42"/>
+      <c r="P167" s="42"/>
+      <c r="Q167" s="42"/>
+      <c r="R167" s="42"/>
+      <c r="S167" s="42"/>
+      <c r="T167" s="42"/>
+      <c r="U167" s="42"/>
+      <c r="V167" s="42"/>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A168" s="81"/>
-      <c r="B168" s="81"/>
-      <c r="C168" s="81"/>
-      <c r="D168" s="81"/>
-      <c r="E168" s="81"/>
-      <c r="F168" s="81"/>
-      <c r="G168" s="81"/>
-      <c r="H168" s="81"/>
-      <c r="I168" s="81"/>
-      <c r="J168" s="81"/>
-      <c r="K168" s="81"/>
-      <c r="L168" s="81"/>
-      <c r="M168" s="81"/>
-      <c r="N168" s="81"/>
-      <c r="O168" s="81"/>
-      <c r="P168" s="81"/>
-      <c r="Q168" s="81"/>
-      <c r="R168" s="81"/>
-      <c r="S168" s="81"/>
-      <c r="T168" s="81"/>
-      <c r="U168" s="81"/>
-      <c r="V168" s="81"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="42"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
+      <c r="G168" s="42"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="42"/>
+      <c r="J168" s="42"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="42"/>
+      <c r="M168" s="42"/>
+      <c r="N168" s="42"/>
+      <c r="O168" s="42"/>
+      <c r="P168" s="42"/>
+      <c r="Q168" s="42"/>
+      <c r="R168" s="42"/>
+      <c r="S168" s="42"/>
+      <c r="T168" s="42"/>
+      <c r="U168" s="42"/>
+      <c r="V168" s="42"/>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A169" s="81"/>
-      <c r="B169" s="81"/>
-      <c r="C169" s="81"/>
-      <c r="D169" s="81"/>
-      <c r="E169" s="81"/>
-      <c r="F169" s="81"/>
-      <c r="G169" s="81"/>
-      <c r="H169" s="81"/>
-      <c r="I169" s="81"/>
-      <c r="J169" s="81"/>
-      <c r="K169" s="81"/>
-      <c r="L169" s="81"/>
-      <c r="M169" s="81"/>
-      <c r="N169" s="81"/>
-      <c r="O169" s="81"/>
-      <c r="P169" s="81"/>
-      <c r="Q169" s="81"/>
-      <c r="R169" s="81"/>
-      <c r="S169" s="81"/>
-      <c r="T169" s="81"/>
-      <c r="U169" s="81"/>
-      <c r="V169" s="81"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="42"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="42"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="42"/>
+      <c r="M169" s="42"/>
+      <c r="N169" s="42"/>
+      <c r="O169" s="42"/>
+      <c r="P169" s="42"/>
+      <c r="Q169" s="42"/>
+      <c r="R169" s="42"/>
+      <c r="S169" s="42"/>
+      <c r="T169" s="42"/>
+      <c r="U169" s="42"/>
+      <c r="V169" s="42"/>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A170" s="81"/>
-      <c r="B170" s="81"/>
-      <c r="C170" s="81"/>
-      <c r="D170" s="81"/>
-      <c r="E170" s="81"/>
-      <c r="F170" s="81"/>
-      <c r="G170" s="81"/>
-      <c r="H170" s="81"/>
-      <c r="I170" s="81"/>
-      <c r="J170" s="81"/>
-      <c r="K170" s="81"/>
-      <c r="L170" s="81"/>
-      <c r="M170" s="81"/>
-      <c r="N170" s="81"/>
-      <c r="O170" s="81"/>
-      <c r="P170" s="81"/>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81"/>
-      <c r="T170" s="81"/>
-      <c r="U170" s="81"/>
-      <c r="V170" s="81"/>
+      <c r="A170" s="42"/>
+      <c r="B170" s="42"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
+      <c r="I170" s="42"/>
+      <c r="J170" s="42"/>
+      <c r="K170" s="42"/>
+      <c r="L170" s="42"/>
+      <c r="M170" s="42"/>
+      <c r="N170" s="42"/>
+      <c r="O170" s="42"/>
+      <c r="P170" s="42"/>
+      <c r="Q170" s="42"/>
+      <c r="R170" s="42"/>
+      <c r="S170" s="42"/>
+      <c r="T170" s="42"/>
+      <c r="U170" s="42"/>
+      <c r="V170" s="42"/>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A171" s="81"/>
-      <c r="B171" s="81"/>
-      <c r="C171" s="81"/>
-      <c r="D171" s="81"/>
-      <c r="E171" s="81"/>
-      <c r="F171" s="81"/>
-      <c r="G171" s="81"/>
-      <c r="H171" s="81"/>
-      <c r="I171" s="81"/>
-      <c r="J171" s="81"/>
-      <c r="K171" s="81"/>
-      <c r="L171" s="81"/>
-      <c r="M171" s="81"/>
-      <c r="N171" s="81"/>
-      <c r="O171" s="81"/>
-      <c r="P171" s="81"/>
-      <c r="Q171" s="81"/>
-      <c r="R171" s="81"/>
-      <c r="S171" s="81"/>
-      <c r="T171" s="81"/>
-      <c r="U171" s="81"/>
-      <c r="V171" s="81"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="42"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="42"/>
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="42"/>
+      <c r="M171" s="42"/>
+      <c r="N171" s="42"/>
+      <c r="O171" s="42"/>
+      <c r="P171" s="42"/>
+      <c r="Q171" s="42"/>
+      <c r="R171" s="42"/>
+      <c r="S171" s="42"/>
+      <c r="T171" s="42"/>
+      <c r="U171" s="42"/>
+      <c r="V171" s="42"/>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A172" s="81"/>
-      <c r="B172" s="81"/>
-      <c r="C172" s="81"/>
-      <c r="D172" s="81"/>
-      <c r="E172" s="81"/>
-      <c r="F172" s="81"/>
-      <c r="G172" s="81"/>
-      <c r="H172" s="81"/>
-      <c r="I172" s="81"/>
-      <c r="J172" s="81"/>
-      <c r="K172" s="81"/>
-      <c r="L172" s="81"/>
-      <c r="M172" s="81"/>
-      <c r="N172" s="81"/>
-      <c r="O172" s="81"/>
-      <c r="P172" s="81"/>
-      <c r="Q172" s="81"/>
-      <c r="R172" s="81"/>
-      <c r="S172" s="81"/>
-      <c r="T172" s="81"/>
-      <c r="U172" s="81"/>
-      <c r="V172" s="81"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="42"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
+      <c r="K172" s="42"/>
+      <c r="L172" s="42"/>
+      <c r="M172" s="42"/>
+      <c r="N172" s="42"/>
+      <c r="O172" s="42"/>
+      <c r="P172" s="42"/>
+      <c r="Q172" s="42"/>
+      <c r="R172" s="42"/>
+      <c r="S172" s="42"/>
+      <c r="T172" s="42"/>
+      <c r="U172" s="42"/>
+      <c r="V172" s="42"/>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A173" s="81"/>
-      <c r="B173" s="81"/>
-      <c r="C173" s="81"/>
-      <c r="D173" s="81"/>
-      <c r="E173" s="81"/>
-      <c r="F173" s="81"/>
-      <c r="G173" s="81"/>
-      <c r="H173" s="81"/>
-      <c r="I173" s="81"/>
-      <c r="J173" s="81"/>
-      <c r="K173" s="81"/>
-      <c r="L173" s="81"/>
-      <c r="M173" s="81"/>
-      <c r="N173" s="81"/>
-      <c r="O173" s="81"/>
-      <c r="P173" s="81"/>
-      <c r="Q173" s="81"/>
-      <c r="R173" s="81"/>
-      <c r="S173" s="81"/>
-      <c r="T173" s="81"/>
-      <c r="U173" s="81"/>
-      <c r="V173" s="81"/>
+      <c r="A173" s="42"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="42"/>
+      <c r="M173" s="42"/>
+      <c r="N173" s="42"/>
+      <c r="O173" s="42"/>
+      <c r="P173" s="42"/>
+      <c r="Q173" s="42"/>
+      <c r="R173" s="42"/>
+      <c r="S173" s="42"/>
+      <c r="T173" s="42"/>
+      <c r="U173" s="42"/>
+      <c r="V173" s="42"/>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A174" s="81"/>
-      <c r="B174" s="81"/>
-      <c r="C174" s="81"/>
-      <c r="D174" s="81"/>
-      <c r="E174" s="81"/>
-      <c r="F174" s="81"/>
-      <c r="G174" s="81"/>
-      <c r="H174" s="81"/>
-      <c r="I174" s="81"/>
-      <c r="J174" s="81"/>
-      <c r="K174" s="81"/>
-      <c r="L174" s="81"/>
-      <c r="M174" s="81"/>
-      <c r="N174" s="81"/>
-      <c r="O174" s="81"/>
-      <c r="P174" s="81"/>
-      <c r="Q174" s="81"/>
-      <c r="R174" s="81"/>
-      <c r="S174" s="81"/>
-      <c r="T174" s="81"/>
-      <c r="U174" s="81"/>
-      <c r="V174" s="81"/>
+      <c r="A174" s="42"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="42"/>
+      <c r="I174" s="42"/>
+      <c r="J174" s="42"/>
+      <c r="K174" s="42"/>
+      <c r="L174" s="42"/>
+      <c r="M174" s="42"/>
+      <c r="N174" s="42"/>
+      <c r="O174" s="42"/>
+      <c r="P174" s="42"/>
+      <c r="Q174" s="42"/>
+      <c r="R174" s="42"/>
+      <c r="S174" s="42"/>
+      <c r="T174" s="42"/>
+      <c r="U174" s="42"/>
+      <c r="V174" s="42"/>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A175" s="81"/>
-      <c r="B175" s="81"/>
-      <c r="C175" s="81"/>
-      <c r="D175" s="81"/>
-      <c r="E175" s="81"/>
-      <c r="F175" s="81"/>
-      <c r="G175" s="81"/>
-      <c r="H175" s="81"/>
-      <c r="I175" s="81"/>
-      <c r="J175" s="81"/>
-      <c r="K175" s="81"/>
-      <c r="L175" s="81"/>
-      <c r="M175" s="81"/>
-      <c r="N175" s="81"/>
-      <c r="O175" s="81"/>
-      <c r="P175" s="81"/>
-      <c r="Q175" s="81"/>
-      <c r="R175" s="81"/>
-      <c r="S175" s="81"/>
-      <c r="T175" s="81"/>
-      <c r="U175" s="81"/>
-      <c r="V175" s="81"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="42"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="42"/>
+      <c r="I175" s="42"/>
+      <c r="J175" s="42"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="42"/>
+      <c r="M175" s="42"/>
+      <c r="N175" s="42"/>
+      <c r="O175" s="42"/>
+      <c r="P175" s="42"/>
+      <c r="Q175" s="42"/>
+      <c r="R175" s="42"/>
+      <c r="S175" s="42"/>
+      <c r="T175" s="42"/>
+      <c r="U175" s="42"/>
+      <c r="V175" s="42"/>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A176" s="81"/>
-      <c r="B176" s="81"/>
-      <c r="C176" s="81"/>
-      <c r="D176" s="81"/>
-      <c r="E176" s="81"/>
-      <c r="F176" s="81"/>
-      <c r="G176" s="81"/>
-      <c r="H176" s="81"/>
-      <c r="I176" s="81"/>
-      <c r="J176" s="81"/>
-      <c r="K176" s="81"/>
-      <c r="L176" s="81"/>
-      <c r="M176" s="81"/>
-      <c r="N176" s="81"/>
-      <c r="O176" s="81"/>
-      <c r="P176" s="81"/>
-      <c r="Q176" s="81"/>
-      <c r="R176" s="81"/>
-      <c r="S176" s="81"/>
-      <c r="T176" s="81"/>
-      <c r="U176" s="81"/>
-      <c r="V176" s="81"/>
+      <c r="A176" s="42"/>
+      <c r="B176" s="42"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42"/>
+      <c r="M176" s="42"/>
+      <c r="N176" s="42"/>
+      <c r="O176" s="42"/>
+      <c r="P176" s="42"/>
+      <c r="Q176" s="42"/>
+      <c r="R176" s="42"/>
+      <c r="S176" s="42"/>
+      <c r="T176" s="42"/>
+      <c r="U176" s="42"/>
+      <c r="V176" s="42"/>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
@@ -5717,141 +5717,141 @@
       <c r="V178" s="21"/>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A179" s="81" t="s">
+      <c r="A179" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B179" s="82"/>
-      <c r="C179" s="82"/>
-      <c r="D179" s="82"/>
-      <c r="E179" s="82"/>
-      <c r="F179" s="82"/>
-      <c r="G179" s="82"/>
-      <c r="H179" s="82"/>
-      <c r="I179" s="82"/>
-      <c r="J179" s="82"/>
-      <c r="K179" s="82"/>
-      <c r="L179" s="82"/>
-      <c r="M179" s="82"/>
-      <c r="N179" s="82"/>
-      <c r="O179" s="82"/>
-      <c r="P179" s="82"/>
-      <c r="Q179" s="82"/>
-      <c r="R179" s="82"/>
-      <c r="S179" s="82"/>
-      <c r="T179" s="82"/>
-      <c r="U179" s="82"/>
-      <c r="V179" s="82"/>
+      <c r="B179" s="43"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="43"/>
+      <c r="K179" s="43"/>
+      <c r="L179" s="43"/>
+      <c r="M179" s="43"/>
+      <c r="N179" s="43"/>
+      <c r="O179" s="43"/>
+      <c r="P179" s="43"/>
+      <c r="Q179" s="43"/>
+      <c r="R179" s="43"/>
+      <c r="S179" s="43"/>
+      <c r="T179" s="43"/>
+      <c r="U179" s="43"/>
+      <c r="V179" s="43"/>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A180" s="82"/>
-      <c r="B180" s="82"/>
-      <c r="C180" s="82"/>
-      <c r="D180" s="82"/>
-      <c r="E180" s="82"/>
-      <c r="F180" s="82"/>
-      <c r="G180" s="82"/>
-      <c r="H180" s="82"/>
-      <c r="I180" s="82"/>
-      <c r="J180" s="82"/>
-      <c r="K180" s="82"/>
-      <c r="L180" s="82"/>
-      <c r="M180" s="82"/>
-      <c r="N180" s="82"/>
-      <c r="O180" s="82"/>
-      <c r="P180" s="82"/>
-      <c r="Q180" s="82"/>
-      <c r="R180" s="82"/>
-      <c r="S180" s="82"/>
-      <c r="T180" s="82"/>
-      <c r="U180" s="82"/>
-      <c r="V180" s="82"/>
+      <c r="A180" s="43"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
+      <c r="J180" s="43"/>
+      <c r="K180" s="43"/>
+      <c r="L180" s="43"/>
+      <c r="M180" s="43"/>
+      <c r="N180" s="43"/>
+      <c r="O180" s="43"/>
+      <c r="P180" s="43"/>
+      <c r="Q180" s="43"/>
+      <c r="R180" s="43"/>
+      <c r="S180" s="43"/>
+      <c r="T180" s="43"/>
+      <c r="U180" s="43"/>
+      <c r="V180" s="43"/>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A181" s="82"/>
-      <c r="B181" s="82"/>
-      <c r="C181" s="82"/>
-      <c r="D181" s="82"/>
-      <c r="E181" s="82"/>
-      <c r="F181" s="82"/>
-      <c r="G181" s="82"/>
-      <c r="H181" s="82"/>
-      <c r="I181" s="82"/>
-      <c r="J181" s="82"/>
-      <c r="K181" s="82"/>
-      <c r="L181" s="82"/>
-      <c r="M181" s="82"/>
-      <c r="N181" s="82"/>
-      <c r="O181" s="82"/>
-      <c r="P181" s="82"/>
-      <c r="Q181" s="82"/>
-      <c r="R181" s="82"/>
-      <c r="S181" s="82"/>
-      <c r="T181" s="82"/>
-      <c r="U181" s="82"/>
-      <c r="V181" s="82"/>
+      <c r="A181" s="43"/>
+      <c r="B181" s="43"/>
+      <c r="C181" s="43"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
+      <c r="J181" s="43"/>
+      <c r="K181" s="43"/>
+      <c r="L181" s="43"/>
+      <c r="M181" s="43"/>
+      <c r="N181" s="43"/>
+      <c r="O181" s="43"/>
+      <c r="P181" s="43"/>
+      <c r="Q181" s="43"/>
+      <c r="R181" s="43"/>
+      <c r="S181" s="43"/>
+      <c r="T181" s="43"/>
+      <c r="U181" s="43"/>
+      <c r="V181" s="43"/>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A182" s="82"/>
-      <c r="B182" s="82"/>
-      <c r="C182" s="82"/>
-      <c r="D182" s="82"/>
-      <c r="E182" s="82"/>
-      <c r="F182" s="82"/>
-      <c r="G182" s="82"/>
-      <c r="H182" s="82"/>
-      <c r="I182" s="82"/>
-      <c r="J182" s="82"/>
-      <c r="K182" s="82"/>
-      <c r="L182" s="82"/>
-      <c r="M182" s="82"/>
-      <c r="N182" s="82"/>
-      <c r="O182" s="82"/>
-      <c r="P182" s="82"/>
-      <c r="Q182" s="82"/>
-      <c r="R182" s="82"/>
-      <c r="S182" s="82"/>
-      <c r="T182" s="82"/>
-      <c r="U182" s="82"/>
-      <c r="V182" s="82"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="43"/>
+      <c r="K182" s="43"/>
+      <c r="L182" s="43"/>
+      <c r="M182" s="43"/>
+      <c r="N182" s="43"/>
+      <c r="O182" s="43"/>
+      <c r="P182" s="43"/>
+      <c r="Q182" s="43"/>
+      <c r="R182" s="43"/>
+      <c r="S182" s="43"/>
+      <c r="T182" s="43"/>
+      <c r="U182" s="43"/>
+      <c r="V182" s="43"/>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A183" s="82"/>
-      <c r="B183" s="82"/>
-      <c r="C183" s="82"/>
-      <c r="D183" s="82"/>
-      <c r="E183" s="82"/>
-      <c r="F183" s="82"/>
-      <c r="G183" s="82"/>
-      <c r="H183" s="82"/>
-      <c r="I183" s="82"/>
-      <c r="J183" s="82"/>
-      <c r="K183" s="82"/>
-      <c r="L183" s="82"/>
-      <c r="M183" s="82"/>
-      <c r="N183" s="82"/>
-      <c r="O183" s="82"/>
-      <c r="P183" s="82"/>
-      <c r="Q183" s="82"/>
-      <c r="R183" s="82"/>
-      <c r="S183" s="82"/>
-      <c r="T183" s="82"/>
-      <c r="U183" s="82"/>
-      <c r="V183" s="82"/>
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
+      <c r="J183" s="43"/>
+      <c r="K183" s="43"/>
+      <c r="L183" s="43"/>
+      <c r="M183" s="43"/>
+      <c r="N183" s="43"/>
+      <c r="O183" s="43"/>
+      <c r="P183" s="43"/>
+      <c r="Q183" s="43"/>
+      <c r="R183" s="43"/>
+      <c r="S183" s="43"/>
+      <c r="T183" s="43"/>
+      <c r="U183" s="43"/>
+      <c r="V183" s="43"/>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K185" s="19"/>
       <c r="L185" s="19"/>
       <c r="M185" s="19"/>
       <c r="N185" s="19"/>
-      <c r="O185" s="94" t="s">
+      <c r="O185" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="P185" s="94"/>
-      <c r="Q185" s="94"/>
-      <c r="R185" s="94"/>
-      <c r="S185" s="94"/>
-      <c r="T185" s="97"/>
-      <c r="U185" s="97"/>
+      <c r="P185" s="65"/>
+      <c r="Q185" s="65"/>
+      <c r="R185" s="65"/>
+      <c r="S185" s="65"/>
+      <c r="T185" s="68"/>
+      <c r="U185" s="68"/>
     </row>
     <row r="186" spans="1:22" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K186" s="12"/>
@@ -5868,173 +5868,173 @@
       <c r="N187" s="22"/>
       <c r="O187" s="22"/>
       <c r="P187" s="22"/>
-      <c r="Q187" s="95" t="s">
+      <c r="Q187" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="R187" s="96"/>
-      <c r="S187" s="96"/>
-      <c r="T187" s="97"/>
-      <c r="U187" s="97"/>
+      <c r="R187" s="67"/>
+      <c r="S187" s="67"/>
+      <c r="T187" s="68"/>
+      <c r="U187" s="68"/>
       <c r="V187" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="73" t="s">
+      <c r="A188" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B188" s="73"/>
-      <c r="C188" s="73"/>
-      <c r="D188" s="73"/>
-      <c r="E188" s="73"/>
-      <c r="F188" s="73"/>
-      <c r="G188" s="73"/>
-      <c r="H188" s="73"/>
-      <c r="I188" s="73"/>
-      <c r="J188" s="73"/>
-      <c r="K188" s="73"/>
-      <c r="L188" s="73"/>
-      <c r="M188" s="73"/>
-      <c r="N188" s="73"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="41"/>
+      <c r="E188" s="41"/>
+      <c r="F188" s="41"/>
+      <c r="G188" s="41"/>
+      <c r="H188" s="41"/>
+      <c r="I188" s="41"/>
+      <c r="J188" s="41"/>
+      <c r="K188" s="41"/>
+      <c r="L188" s="41"/>
+      <c r="M188" s="41"/>
+      <c r="N188" s="41"/>
       <c r="O188" s="17"/>
       <c r="P188" s="17"/>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A189" s="73"/>
-      <c r="B189" s="73"/>
-      <c r="C189" s="73"/>
-      <c r="D189" s="73"/>
-      <c r="E189" s="73"/>
-      <c r="F189" s="73"/>
-      <c r="G189" s="73"/>
-      <c r="H189" s="73"/>
-      <c r="I189" s="73"/>
-      <c r="J189" s="73"/>
-      <c r="K189" s="73"/>
-      <c r="L189" s="73"/>
-      <c r="M189" s="73"/>
-      <c r="N189" s="73"/>
+      <c r="A189" s="41"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="41"/>
+      <c r="D189" s="41"/>
+      <c r="E189" s="41"/>
+      <c r="F189" s="41"/>
+      <c r="G189" s="41"/>
+      <c r="H189" s="41"/>
+      <c r="I189" s="41"/>
+      <c r="J189" s="41"/>
+      <c r="K189" s="41"/>
+      <c r="L189" s="41"/>
+      <c r="M189" s="41"/>
+      <c r="N189" s="41"/>
       <c r="O189" s="17"/>
       <c r="P189" s="17"/>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A190" s="73"/>
-      <c r="B190" s="73"/>
-      <c r="C190" s="73"/>
-      <c r="D190" s="73"/>
-      <c r="E190" s="73"/>
-      <c r="F190" s="73"/>
-      <c r="G190" s="73"/>
-      <c r="H190" s="73"/>
-      <c r="I190" s="73"/>
-      <c r="J190" s="73"/>
-      <c r="K190" s="73"/>
-      <c r="L190" s="73"/>
-      <c r="M190" s="73"/>
-      <c r="N190" s="73"/>
+      <c r="A190" s="41"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="41"/>
+      <c r="G190" s="41"/>
+      <c r="H190" s="41"/>
+      <c r="I190" s="41"/>
+      <c r="J190" s="41"/>
+      <c r="K190" s="41"/>
+      <c r="L190" s="41"/>
+      <c r="M190" s="41"/>
+      <c r="N190" s="41"/>
       <c r="O190" s="17"/>
       <c r="P190" s="17"/>
-      <c r="R190" s="79" t="s">
+      <c r="R190" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="S190" s="79"/>
-      <c r="T190" s="42"/>
-      <c r="U190" s="42"/>
+      <c r="S190" s="38"/>
+      <c r="T190" s="40"/>
+      <c r="U190" s="40"/>
     </row>
     <row r="191" spans="1:22" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="73"/>
-      <c r="B191" s="73"/>
-      <c r="C191" s="73"/>
-      <c r="D191" s="73"/>
-      <c r="E191" s="73"/>
-      <c r="F191" s="73"/>
-      <c r="G191" s="73"/>
-      <c r="H191" s="73"/>
-      <c r="I191" s="73"/>
-      <c r="J191" s="73"/>
-      <c r="K191" s="73"/>
-      <c r="L191" s="73"/>
-      <c r="M191" s="73"/>
-      <c r="N191" s="73"/>
+      <c r="A191" s="41"/>
+      <c r="B191" s="41"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="41"/>
+      <c r="E191" s="41"/>
+      <c r="F191" s="41"/>
+      <c r="G191" s="41"/>
+      <c r="H191" s="41"/>
+      <c r="I191" s="41"/>
+      <c r="J191" s="41"/>
+      <c r="K191" s="41"/>
+      <c r="L191" s="41"/>
+      <c r="M191" s="41"/>
+      <c r="N191" s="41"/>
       <c r="O191" s="17"/>
       <c r="P191" s="17"/>
     </row>
     <row r="192" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="73"/>
-      <c r="B192" s="73"/>
-      <c r="C192" s="73"/>
-      <c r="D192" s="73"/>
-      <c r="E192" s="73"/>
-      <c r="F192" s="73"/>
-      <c r="G192" s="73"/>
-      <c r="H192" s="73"/>
-      <c r="I192" s="73"/>
-      <c r="J192" s="73"/>
-      <c r="K192" s="73"/>
-      <c r="L192" s="73"/>
-      <c r="M192" s="73"/>
-      <c r="N192" s="73"/>
+      <c r="A192" s="41"/>
+      <c r="B192" s="41"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="41"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="41"/>
+      <c r="G192" s="41"/>
+      <c r="H192" s="41"/>
+      <c r="I192" s="41"/>
+      <c r="J192" s="41"/>
+      <c r="K192" s="41"/>
+      <c r="L192" s="41"/>
+      <c r="M192" s="41"/>
+      <c r="N192" s="41"/>
       <c r="O192" s="17"/>
       <c r="P192" s="17"/>
-      <c r="Q192" s="80" t="s">
+      <c r="Q192" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="R192" s="80"/>
-      <c r="S192" s="80"/>
-      <c r="T192" s="83"/>
-      <c r="U192" s="83"/>
+      <c r="R192" s="39"/>
+      <c r="S192" s="39"/>
+      <c r="T192" s="54"/>
+      <c r="U192" s="54"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A193" s="73"/>
-      <c r="B193" s="73"/>
-      <c r="C193" s="73"/>
-      <c r="D193" s="73"/>
-      <c r="E193" s="73"/>
-      <c r="F193" s="73"/>
-      <c r="G193" s="73"/>
-      <c r="H193" s="73"/>
-      <c r="I193" s="73"/>
-      <c r="J193" s="73"/>
-      <c r="K193" s="73"/>
-      <c r="L193" s="73"/>
-      <c r="M193" s="73"/>
-      <c r="N193" s="73"/>
+      <c r="A193" s="41"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="41"/>
+      <c r="E193" s="41"/>
+      <c r="F193" s="41"/>
+      <c r="G193" s="41"/>
+      <c r="H193" s="41"/>
+      <c r="I193" s="41"/>
+      <c r="J193" s="41"/>
+      <c r="K193" s="41"/>
+      <c r="L193" s="41"/>
+      <c r="M193" s="41"/>
+      <c r="N193" s="41"/>
       <c r="O193" s="17"/>
       <c r="P193" s="17"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A194" s="73"/>
-      <c r="B194" s="73"/>
-      <c r="C194" s="73"/>
-      <c r="D194" s="73"/>
-      <c r="E194" s="73"/>
-      <c r="F194" s="73"/>
-      <c r="G194" s="73"/>
-      <c r="H194" s="73"/>
-      <c r="I194" s="73"/>
-      <c r="J194" s="73"/>
-      <c r="K194" s="73"/>
-      <c r="L194" s="73"/>
-      <c r="M194" s="73"/>
-      <c r="N194" s="73"/>
+      <c r="A194" s="41"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="41"/>
+      <c r="E194" s="41"/>
+      <c r="F194" s="41"/>
+      <c r="G194" s="41"/>
+      <c r="H194" s="41"/>
+      <c r="I194" s="41"/>
+      <c r="J194" s="41"/>
+      <c r="K194" s="41"/>
+      <c r="L194" s="41"/>
+      <c r="M194" s="41"/>
+      <c r="N194" s="41"/>
       <c r="O194" s="17"/>
       <c r="P194" s="17"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A195" s="73"/>
-      <c r="B195" s="73"/>
-      <c r="C195" s="73"/>
-      <c r="D195" s="73"/>
-      <c r="E195" s="73"/>
-      <c r="F195" s="73"/>
-      <c r="G195" s="73"/>
-      <c r="H195" s="73"/>
-      <c r="I195" s="73"/>
-      <c r="J195" s="73"/>
-      <c r="K195" s="73"/>
-      <c r="L195" s="73"/>
-      <c r="M195" s="73"/>
-      <c r="N195" s="73"/>
+      <c r="A195" s="41"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="41"/>
+      <c r="G195" s="41"/>
+      <c r="H195" s="41"/>
+      <c r="I195" s="41"/>
+      <c r="J195" s="41"/>
+      <c r="K195" s="41"/>
+      <c r="L195" s="41"/>
+      <c r="M195" s="41"/>
+      <c r="N195" s="41"/>
       <c r="O195" s="17"/>
       <c r="P195" s="17"/>
     </row>
@@ -6076,17 +6076,305 @@
     </row>
   </sheetData>
   <mergeCells count="347">
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:T35"/>
-    <mergeCell ref="A55:V55"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="G4:Q4"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="A23:V23"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:T22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="E19:V19"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A29:V29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="A5:V7"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="U9:V12"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="G15:Q15"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="A36:V36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C47:Q47"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="N18:T18"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="D20:V20"/>
+    <mergeCell ref="A43:V43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="L45:S45"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="D58:K59"/>
+    <mergeCell ref="O58:S59"/>
+    <mergeCell ref="T58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:K61"/>
+    <mergeCell ref="O60:S61"/>
+    <mergeCell ref="T60:U61"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D62:K63"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="E67:N67"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="T68:V68"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="T70:V70"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="O68:S68"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="O70:S70"/>
+    <mergeCell ref="E68:N68"/>
+    <mergeCell ref="E69:N69"/>
+    <mergeCell ref="E70:N70"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:V73"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="V76:V77"/>
+    <mergeCell ref="T76:U77"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F77"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J77"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M77"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O77"/>
+    <mergeCell ref="P75:S75"/>
+    <mergeCell ref="P76:S77"/>
+    <mergeCell ref="A84:V84"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="T86:V86"/>
+    <mergeCell ref="V78:V79"/>
+    <mergeCell ref="T80:U81"/>
+    <mergeCell ref="V80:V81"/>
+    <mergeCell ref="T78:U79"/>
+    <mergeCell ref="B78:F79"/>
+    <mergeCell ref="B80:F81"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="G80:J81"/>
+    <mergeCell ref="K78:M79"/>
+    <mergeCell ref="K80:M81"/>
+    <mergeCell ref="N78:O79"/>
+    <mergeCell ref="N80:O81"/>
+    <mergeCell ref="P78:S79"/>
+    <mergeCell ref="P80:S81"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A92:V92"/>
+    <mergeCell ref="T89:V89"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B87:L87"/>
+    <mergeCell ref="B88:L88"/>
+    <mergeCell ref="B89:L89"/>
+    <mergeCell ref="M86:S86"/>
+    <mergeCell ref="M87:S87"/>
+    <mergeCell ref="M88:S88"/>
+    <mergeCell ref="M89:S89"/>
+    <mergeCell ref="T87:V87"/>
+    <mergeCell ref="T88:V88"/>
+    <mergeCell ref="A98:G98"/>
+    <mergeCell ref="A99:V99"/>
+    <mergeCell ref="A94:L94"/>
+    <mergeCell ref="M94:V94"/>
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="M95:V95"/>
+    <mergeCell ref="M96:V96"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A97:L97"/>
+    <mergeCell ref="M97:V97"/>
+    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="E109:I109"/>
+    <mergeCell ref="E110:I110"/>
+    <mergeCell ref="A101:V101"/>
+    <mergeCell ref="A102:V102"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="U109:V109"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="J107:O107"/>
+    <mergeCell ref="J108:O108"/>
+    <mergeCell ref="J109:O109"/>
+    <mergeCell ref="J110:O110"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="A105:V105"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="U107:V107"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="M116:T116"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A113:V113"/>
+    <mergeCell ref="U115:V115"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="M112:S112"/>
+    <mergeCell ref="M115:T115"/>
+    <mergeCell ref="F115:K115"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="F118:K118"/>
+    <mergeCell ref="M118:T118"/>
+    <mergeCell ref="T120:V120"/>
+    <mergeCell ref="T121:V121"/>
+    <mergeCell ref="T122:V122"/>
+    <mergeCell ref="T123:V123"/>
+    <mergeCell ref="U118:V118"/>
+    <mergeCell ref="U117:V117"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="M117:T117"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="A120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="A121:Q121"/>
+    <mergeCell ref="A122:Q122"/>
+    <mergeCell ref="A123:Q123"/>
+    <mergeCell ref="R121:S121"/>
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="T124:V124"/>
+    <mergeCell ref="T125:V125"/>
+    <mergeCell ref="T126:V126"/>
+    <mergeCell ref="T127:V127"/>
+    <mergeCell ref="T128:V128"/>
+    <mergeCell ref="R126:S126"/>
+    <mergeCell ref="R127:S127"/>
+    <mergeCell ref="R128:S128"/>
+    <mergeCell ref="A128:Q128"/>
+    <mergeCell ref="A124:Q124"/>
+    <mergeCell ref="A125:Q125"/>
+    <mergeCell ref="A126:Q126"/>
+    <mergeCell ref="A127:Q127"/>
+    <mergeCell ref="R124:S124"/>
+    <mergeCell ref="R125:S125"/>
+    <mergeCell ref="A138:V138"/>
+    <mergeCell ref="U140:V140"/>
+    <mergeCell ref="Q140:T140"/>
+    <mergeCell ref="F140:P140"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A132:V132"/>
+    <mergeCell ref="A133:V135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="T129:V129"/>
+    <mergeCell ref="A129:Q131"/>
+    <mergeCell ref="R129:S131"/>
+    <mergeCell ref="T130:V130"/>
+    <mergeCell ref="T131:V131"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A145:V145"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:P147"/>
+    <mergeCell ref="Q147:T147"/>
+    <mergeCell ref="U147:V147"/>
+    <mergeCell ref="A141:E142"/>
+    <mergeCell ref="F141:P142"/>
+    <mergeCell ref="Q141:T142"/>
+    <mergeCell ref="U141:V142"/>
     <mergeCell ref="R190:S190"/>
     <mergeCell ref="Q192:S192"/>
     <mergeCell ref="T190:U190"/>
@@ -6111,195 +6399,17 @@
     <mergeCell ref="F148:P149"/>
     <mergeCell ref="Q148:T149"/>
     <mergeCell ref="U148:V149"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="A145:V145"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="F147:P147"/>
-    <mergeCell ref="Q147:T147"/>
-    <mergeCell ref="U147:V147"/>
-    <mergeCell ref="A141:E142"/>
-    <mergeCell ref="F141:P142"/>
-    <mergeCell ref="Q141:T142"/>
-    <mergeCell ref="U141:V142"/>
-    <mergeCell ref="A138:V138"/>
-    <mergeCell ref="U140:V140"/>
-    <mergeCell ref="Q140:T140"/>
-    <mergeCell ref="F140:P140"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A132:V132"/>
-    <mergeCell ref="A133:V135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="T129:V129"/>
-    <mergeCell ref="A129:Q131"/>
-    <mergeCell ref="R129:S131"/>
-    <mergeCell ref="T130:V130"/>
-    <mergeCell ref="T131:V131"/>
-    <mergeCell ref="T124:V124"/>
-    <mergeCell ref="T125:V125"/>
-    <mergeCell ref="T126:V126"/>
-    <mergeCell ref="T127:V127"/>
-    <mergeCell ref="T128:V128"/>
-    <mergeCell ref="R126:S126"/>
-    <mergeCell ref="R127:S127"/>
-    <mergeCell ref="R128:S128"/>
-    <mergeCell ref="A128:Q128"/>
-    <mergeCell ref="A124:Q124"/>
-    <mergeCell ref="A125:Q125"/>
-    <mergeCell ref="A126:Q126"/>
-    <mergeCell ref="A127:Q127"/>
-    <mergeCell ref="R124:S124"/>
-    <mergeCell ref="R125:S125"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="F118:K118"/>
-    <mergeCell ref="M118:T118"/>
-    <mergeCell ref="T120:V120"/>
-    <mergeCell ref="T121:V121"/>
-    <mergeCell ref="T122:V122"/>
-    <mergeCell ref="T123:V123"/>
-    <mergeCell ref="U118:V118"/>
-    <mergeCell ref="U117:V117"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="M117:T117"/>
-    <mergeCell ref="F117:K117"/>
-    <mergeCell ref="A120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="A121:Q121"/>
-    <mergeCell ref="A122:Q122"/>
-    <mergeCell ref="A123:Q123"/>
-    <mergeCell ref="R121:S121"/>
-    <mergeCell ref="R122:S122"/>
-    <mergeCell ref="R123:S123"/>
-    <mergeCell ref="U116:V116"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="M116:T116"/>
-    <mergeCell ref="F116:K116"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A113:V113"/>
-    <mergeCell ref="U115:V115"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="M112:S112"/>
-    <mergeCell ref="M115:T115"/>
-    <mergeCell ref="F115:K115"/>
-    <mergeCell ref="E107:I107"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="E109:I109"/>
-    <mergeCell ref="E110:I110"/>
-    <mergeCell ref="A101:V101"/>
-    <mergeCell ref="A102:V102"/>
-    <mergeCell ref="U108:V108"/>
-    <mergeCell ref="U109:V109"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="J107:O107"/>
-    <mergeCell ref="J108:O108"/>
-    <mergeCell ref="J109:O109"/>
-    <mergeCell ref="J110:O110"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="A105:V105"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="U107:V107"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="A99:V99"/>
-    <mergeCell ref="A94:L94"/>
-    <mergeCell ref="M94:V94"/>
-    <mergeCell ref="A95:L95"/>
-    <mergeCell ref="M95:V95"/>
-    <mergeCell ref="M96:V96"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A97:L97"/>
-    <mergeCell ref="M97:V97"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:V92"/>
-    <mergeCell ref="T89:V89"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B87:L87"/>
-    <mergeCell ref="B88:L88"/>
-    <mergeCell ref="B89:L89"/>
-    <mergeCell ref="M86:S86"/>
-    <mergeCell ref="M87:S87"/>
-    <mergeCell ref="M88:S88"/>
-    <mergeCell ref="M89:S89"/>
-    <mergeCell ref="T87:V87"/>
-    <mergeCell ref="T88:V88"/>
-    <mergeCell ref="A84:V84"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="T86:V86"/>
-    <mergeCell ref="V78:V79"/>
-    <mergeCell ref="T80:U81"/>
-    <mergeCell ref="V80:V81"/>
-    <mergeCell ref="T78:U79"/>
-    <mergeCell ref="B78:F79"/>
-    <mergeCell ref="B80:F81"/>
-    <mergeCell ref="G78:J79"/>
-    <mergeCell ref="G80:J81"/>
-    <mergeCell ref="K78:M79"/>
-    <mergeCell ref="K80:M81"/>
-    <mergeCell ref="N78:O79"/>
-    <mergeCell ref="N80:O81"/>
-    <mergeCell ref="P78:S79"/>
-    <mergeCell ref="P80:S81"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:V73"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="V76:V77"/>
-    <mergeCell ref="T76:U77"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F77"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J77"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M77"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O77"/>
-    <mergeCell ref="P75:S75"/>
-    <mergeCell ref="P76:S77"/>
-    <mergeCell ref="E67:N67"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="T68:V68"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="T70:V70"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="O68:S68"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="O70:S70"/>
-    <mergeCell ref="E68:N68"/>
-    <mergeCell ref="E69:N69"/>
-    <mergeCell ref="E70:N70"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="O57:S57"/>
-    <mergeCell ref="D57:K57"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="D58:K59"/>
-    <mergeCell ref="O58:S59"/>
-    <mergeCell ref="T58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:K61"/>
-    <mergeCell ref="O60:S61"/>
-    <mergeCell ref="T60:U61"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D62:K63"/>
-    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F35:T35"/>
+    <mergeCell ref="A55:V55"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="S52:V52"/>
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="L50:N50"/>
@@ -6313,118 +6423,8 @@
     <mergeCell ref="J46:Q46"/>
     <mergeCell ref="S46:T46"/>
     <mergeCell ref="A49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C47:Q47"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="N18:T18"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="D20:V20"/>
-    <mergeCell ref="A43:V43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="L45:S45"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="A36:V36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="A5:V7"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="U9:V12"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="G15:Q15"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="A29:V29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="G4:Q4"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="A23:V23"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:T22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="E19:V19"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" gridLines="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6445,1273 +6445,1399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="F18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+      <c r="A80" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
+      <c r="A81" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="48" t="s">
+      <c r="A85" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
+      <c r="A86" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
+      <c r="A89" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="80"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="80"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="80"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="B103" s="48"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="48"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="48" t="s">
+      <c r="A105" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="80"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="80"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="48" t="s">
+      <c r="A110" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="80"/>
+      <c r="E112" s="80"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="48"/>
+      <c r="B114" s="80"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
+      <c r="B115" s="80"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="48" t="s">
+      <c r="A116" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
+      <c r="B116" s="80"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="80"/>
+      <c r="E116" s="80"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="48" t="s">
+      <c r="A117" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="48"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="80"/>
+      <c r="E117" s="80"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="80"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="48" t="s">
+      <c r="A119" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="B119" s="48"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="48"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="80"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="48" t="s">
+      <c r="A120" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="80"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="80"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="48" t="s">
+      <c r="A122" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="48" t="s">
+      <c r="A123" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="B123" s="48"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="48"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="E124" s="80"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="48" t="s">
+      <c r="A125" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="80"/>
+      <c r="D125" s="80"/>
+      <c r="E125" s="80"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="48" t="s">
+      <c r="A126" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="48"/>
-      <c r="E126" s="48"/>
+      <c r="B126" s="80"/>
+      <c r="C126" s="80"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="80"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="48" t="s">
+      <c r="A127" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="48"/>
+      <c r="B127" s="80"/>
+      <c r="C127" s="80"/>
+      <c r="D127" s="80"/>
+      <c r="E127" s="80"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="48" t="s">
+      <c r="A128" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="48"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="80"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="80"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="48" t="s">
+      <c r="A129" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="48"/>
+      <c r="B129" s="80"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="80"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="48" t="s">
+      <c r="A130" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="48"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="48"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="80"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="80"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="48" t="s">
+      <c r="A131" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="48"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="48"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="48" t="s">
+      <c r="A132" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="48"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="48"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="48" t="s">
+      <c r="A133" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="48"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="48" t="s">
+      <c r="A134" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="B134" s="48"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="48"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="80"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="B135" s="48"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="80"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="48" t="s">
+      <c r="A136" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="B136" s="48"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="48"/>
-      <c r="E136" s="48"/>
+      <c r="B136" s="80"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="80"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="48" t="s">
+      <c r="A137" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="B137" s="48"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="48"/>
+      <c r="B137" s="80"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="80"/>
+      <c r="E137" s="80"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="48" t="s">
+      <c r="A138" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="B138" s="48"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="48"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="80"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="48" t="s">
+      <c r="A139" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="48"/>
+      <c r="B139" s="80"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="80"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="48"/>
+      <c r="B140" s="80"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
     <mergeCell ref="A139:E139"/>
     <mergeCell ref="A140:E140"/>
     <mergeCell ref="A133:E133"/>
@@ -7726,132 +7852,6 @@
     <mergeCell ref="A130:E130"/>
     <mergeCell ref="A131:E131"/>
     <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
